--- a/xlsx/spb.xlsx
+++ b/xlsx/spb.xlsx
@@ -2519,7 +2519,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/chery/tiggo-7-pro-max/2022-allroad-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/chery/tiggo-7-pro-max/i-allroad-5/</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/cheryexeed/lx/2019-allroad-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/cheryexeed/lx/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/faw/bestune-b70/2020-liftback-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/faw/bestune-b70/i-liftback-5/</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/faw/bestune-t77/2018-allroad-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/faw/bestune-t77/i-allroad-5/</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/geely/monjaro/2021-allroad-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/geely/monjaro/i-allroad-5/</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -8003,7 +8003,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1924000</v>
+        <v>1724000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         </is>
       </c>
       <c r="H196" t="n">
-        <v>1924000</v>
+        <v>1724000</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/jetour/dashing/2022-allroad-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/jetour/dashing/i-allroad-5/</t>
         </is>
       </c>
       <c r="L202" t="n">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/jetta/vs5/2019-allroad-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/jetta/vs5/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="L210" t="n">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/jetta/vs7/2019-allroad-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/jetta/vs7/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="L212" t="n">
@@ -10657,7 +10657,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -10667,30 +10667,30 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Granta Drive Active Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>617900</v>
+        <v>534200</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
         </is>
       </c>
       <c r="H264" t="n">
-        <v>617900</v>
+        <v>534200</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-4/</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Hatchback New</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -10708,22 +10708,22 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
-        </is>
-      </c>
-      <c r="H265" t="n">
+          <t>https://altimus-auto.ru/auto/lada/granta-hatchback</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
         <v>534200</v>
       </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-hatchback-5/</t>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/lada/granta-hatchback</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -10733,30 +10733,30 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Granta Hatchback New</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>534200</v>
+        <v>559040</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-hatchback</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>534200</v>
-      </c>
-      <c r="M266" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-hatchback</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-liftback-5/</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>559040</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-liftback-5/</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Liftback New</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -10774,22 +10774,30 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-liftback-5/</t>
+          <t>https://altimus-auto.ru/auto/lada/granta-liftback</t>
         </is>
       </c>
       <c r="H267" t="n">
+        <v>989900</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-liftback-sport-5/</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
         <v>559040</v>
       </c>
-      <c r="I267" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-liftback-5/</t>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/lada/granta-liftback</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -10799,38 +10807,30 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Granta Liftback New</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>559040</v>
+        <v>617900</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-liftback</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-5/</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>989900</v>
+        <v>617900</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-liftback-sport-5/</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>559040</v>
-      </c>
-      <c r="M268" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-liftback</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-liftback-drive-activesportline-5/</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -10840,30 +10840,30 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>506640</v>
+        <v>780900</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-sedan-4/</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-sedan-drive-activesportline-4/</t>
         </is>
       </c>
       <c r="H269" t="n">
-        <v>506640</v>
+        <v>780900</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-sedan-4/</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-sedan-drive-activesportline-4/</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -10873,30 +10873,30 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>780900</v>
+        <v>506640</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-sedan-drive-activesportline-4/</t>
-        </is>
-      </c>
-      <c r="H270" t="n">
-        <v>780900</v>
-      </c>
-      <c r="I270" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-sedan-drive-activesportline-4/</t>
+          <t>https://altimus-auto.ru/auto/lada/granta</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>506640</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/lada/granta</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -10906,30 +10906,30 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Granta Sport Drive Active Liftback</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>506640</v>
+        <v>780900</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta</t>
+          <t>https://altimus-auto.ru/auto/lada/granta-sport-drive-active</t>
         </is>
       </c>
       <c r="L271" t="n">
-        <v>506640</v>
+        <v>780900</v>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta</t>
+          <t>https://altimus-auto.ru/auto/lada/granta-sport-drive-active</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -10939,30 +10939,30 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Granta Sport Drive Active Liftback</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>780900</v>
+        <v>989900</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-sport-drive-active</t>
+          <t>https://altimus-auto.ru/auto/lada/granta-sport-liftback</t>
         </is>
       </c>
       <c r="L272" t="n">
-        <v>780900</v>
+        <v>989900</v>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-sport-drive-active</t>
+          <t>https://altimus-auto.ru/auto/lada/granta-sport-liftback</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -10972,30 +10972,38 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>989900</v>
+        <v>949900</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-sport-liftback</t>
+          <t>https://altimus-auto.ru/auto/lada/granta-sport-sedan</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
+        <v>949900</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
         </is>
       </c>
       <c r="L273" t="n">
-        <v>989900</v>
+        <v>949900</v>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-sport-liftback</t>
+          <t>https://altimus-auto.ru/auto/lada/granta-sport-sedan</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -11005,38 +11013,30 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>949900</v>
+        <v>951000</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-sport-sedan</t>
-        </is>
-      </c>
-      <c r="H274" t="n">
-        <v>949900</v>
-      </c>
-      <c r="I274" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-sedan-sport-4/</t>
+          <t>https://altimus-auto.ru/auto/lada/granta/sedan-sportline-1gen-rest</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>949900</v>
+        <v>951000</v>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-sport-sedan</t>
+          <t>https://altimus-auto.ru/auto/lada/granta/sedan-sportline-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -11046,30 +11046,30 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Granta Sportline</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>951000</v>
+        <v>991000</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta/sedan-sportline-1gen-rest</t>
+          <t>https://altimus-auto.ru/auto/lada/granta/liftback-sportline%20-1gen</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>951000</v>
+        <v>991000</v>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta/sedan-sportline-1gen-rest</t>
+          <t>https://altimus-auto.ru/auto/lada/granta/liftback-sportline%20-1gen</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -11079,30 +11079,30 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Granta Sportline Liftback</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>991000</v>
+        <v>516040</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta/liftback-sportline%20-1gen</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>991000</v>
-      </c>
-      <c r="M276" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/lada/granta/liftback-sportline%20-1gen</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-wagon-5/</t>
+        </is>
+      </c>
+      <c r="H276" t="n">
+        <v>516040</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-wagon-5/</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -11120,22 +11120,22 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-wagon-5/</t>
-        </is>
-      </c>
-      <c r="H277" t="n">
+          <t>https://altimus-auto.ru/auto/lada/granta-universal</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
         <v>516040</v>
       </c>
-      <c r="I277" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/granta/i-res-wagon-5/</t>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/lada/granta-universal</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>963</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -11145,30 +11145,30 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Granta Universal New</t>
+          <t>Kalina Cross</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>516040</v>
+        <v>295800</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-universal</t>
+          <t>https://altimus-auto.ru/auto/lada/kalina-cross</t>
         </is>
       </c>
       <c r="L278" t="n">
-        <v>516040</v>
+        <v>295800</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/granta-universal</t>
+          <t>https://altimus-auto.ru/auto/lada/kalina-cross</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>962</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -11178,30 +11178,30 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Kalina Cross</t>
+          <t>Kalina Hatchback</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>295800</v>
+        <v>210600</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/kalina-cross</t>
+          <t>https://altimus-auto.ru/auto/lada/kalina-hatch</t>
         </is>
       </c>
       <c r="L279" t="n">
-        <v>295800</v>
+        <v>210600</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/kalina-cross</t>
+          <t>https://altimus-auto.ru/auto/lada/kalina-hatch</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -11211,30 +11211,38 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Kalina Hatchback</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>210600</v>
+        <v>640000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/kalina-hatch</t>
+          <t>https://altimus-auto.ru/auto/lada/largus</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>640000</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/largus/i-res-wagon-5/</t>
         </is>
       </c>
       <c r="L280" t="n">
-        <v>210600</v>
+        <v>640000</v>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/kalina-hatch</t>
+          <t>https://altimus-auto.ru/auto/lada/largus</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -11244,38 +11252,30 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus 7 мест</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>640000</v>
+        <v>680000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/largus</t>
-        </is>
-      </c>
-      <c r="H281" t="n">
-        <v>640000</v>
-      </c>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/largus/i-res-wagon-5/</t>
+          <t>https://altimus-auto.ru/auto/lada/largus7</t>
         </is>
       </c>
       <c r="L281" t="n">
-        <v>640000</v>
+        <v>680000</v>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/largus</t>
+          <t>https://altimus-auto.ru/auto/lada/largus7</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -11285,30 +11285,38 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Largus 7 мест</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>680000</v>
+        <v>727000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/largus7</t>
+          <t>https://altimus-auto.ru/auto/lada/largus-cross</t>
+        </is>
+      </c>
+      <c r="H282" t="n">
+        <v>727000</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/largus/i-res-wagon-cross-5/</t>
         </is>
       </c>
       <c r="L282" t="n">
-        <v>680000</v>
+        <v>727000</v>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/largus7</t>
+          <t>https://altimus-auto.ru/auto/lada/largus-cross</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -11318,38 +11326,30 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus Cross 7 мест</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>727000</v>
+        <v>767000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/largus-cross</t>
-        </is>
-      </c>
-      <c r="H283" t="n">
-        <v>727000</v>
-      </c>
-      <c r="I283" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/largus/i-res-wagon-cross-5/</t>
+          <t>https://altimus-auto.ru/auto/lada/largus-cross7</t>
         </is>
       </c>
       <c r="L283" t="n">
-        <v>727000</v>
+        <v>767000</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/largus-cross</t>
+          <t>https://altimus-auto.ru/auto/lada/largus-cross7</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -11359,30 +11359,38 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Largus Cross 7 мест</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>767000</v>
+        <v>790000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/largus-cross7</t>
+          <t>https://altimus-auto.ru/auto/lada/largus-furgon</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>1132000</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/largus/i-res-van-5/</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>767000</v>
+        <v>790000</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/largus-cross7</t>
+          <t>https://altimus-auto.ru/auto/lada/largus-furgon</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -11392,38 +11400,30 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>790000</v>
+        <v>792900</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/largus-furgon</t>
-        </is>
-      </c>
-      <c r="H285" t="n">
-        <v>1132000</v>
-      </c>
-      <c r="I285" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/largus/i-res-van-5/</t>
+          <t>https://altimus-auto.ru/auto/lada/niva-4x4</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>790000</v>
+        <v>792900</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/largus-furgon</t>
+          <t>https://altimus-auto.ru/auto/lada/niva-4x4</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -11433,30 +11433,30 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>792900</v>
+        <v>618900</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/niva-4x4</t>
+          <t>https://altimus-auto.ru/auto/lada/4x4-legend-3d</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>792900</v>
+        <v>618900</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/niva-4x4</t>
+          <t>https://altimus-auto.ru/auto/lada/4x4-legend-3d</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -11466,30 +11466,30 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>618900</v>
+        <v>688900</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/4x4-legend-3d</t>
+          <t>https://altimus-auto.ru/auto/lada/4x4-legend-5d</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>618900</v>
+        <v>688900</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/4x4-legend-3d</t>
+          <t>https://altimus-auto.ru/auto/lada/4x4-legend-5d</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -11499,30 +11499,30 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>688900</v>
+        <v>917900</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/4x4-legend-5d</t>
+          <t>https://altimus-auto.ru/auto/lada/niva-legend/bronto-3d-1gen-rest</t>
         </is>
       </c>
       <c r="L288" t="n">
-        <v>688900</v>
+        <v>917900</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/4x4-legend-5d</t>
+          <t>https://altimus-auto.ru/auto/lada/niva-legend/bronto-3d-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -11532,30 +11532,30 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>917900</v>
+        <v>574000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/niva-legend/bronto-3d-1gen-rest</t>
+          <t>https://altimus-auto.ru/auto/lada/niva-offroad</t>
         </is>
       </c>
       <c r="L289" t="n">
-        <v>917900</v>
+        <v>574000</v>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/niva-legend/bronto-3d-1gen-rest</t>
+          <t>https://altimus-auto.ru/auto/lada/niva-offroad</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -11565,30 +11565,38 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>574000</v>
+        <v>557000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/niva-offroad</t>
+          <t>https://altimus-auto.ru/auto/lada/niva-travel</t>
+        </is>
+      </c>
+      <c r="H290" t="n">
+        <v>557000</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/niva/i-res-allroad-5/</t>
         </is>
       </c>
       <c r="L290" t="n">
-        <v>574000</v>
+        <v>557000</v>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/niva-offroad</t>
+          <t>https://altimus-auto.ru/auto/lada/niva-travel</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -11598,38 +11606,30 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Urban 3 двери</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>557000</v>
+        <v>515000</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/niva-travel</t>
-        </is>
-      </c>
-      <c r="H291" t="n">
-        <v>557000</v>
-      </c>
-      <c r="I291" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/niva/i-res-allroad-5/</t>
+          <t>https://altimus-auto.ru/auto/lada/4x4-urban-3d</t>
         </is>
       </c>
       <c r="L291" t="n">
-        <v>557000</v>
+        <v>515000</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/niva-travel</t>
+          <t>https://altimus-auto.ru/auto/lada/4x4-urban-3d</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -11639,30 +11639,30 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Niva Urban 3 двери</t>
+          <t>Niva Urban 5 дверей</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>515000</v>
+        <v>553000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/4x4-urban-3d</t>
+          <t>https://altimus-auto.ru/auto/lada/4x4-urban-5d</t>
         </is>
       </c>
       <c r="L292" t="n">
-        <v>515000</v>
+        <v>553000</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/4x4-urban-3d</t>
+          <t>https://altimus-auto.ru/auto/lada/4x4-urban-5d</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -11672,30 +11672,30 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Niva Urban 5 дверей</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>553000</v>
+        <v>869900</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/4x4-urban-5d</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-cross</t>
         </is>
       </c>
       <c r="L293" t="n">
-        <v>553000</v>
+        <v>869900</v>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/4x4-urban-5d</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-cross</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -11705,30 +11705,38 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>869900</v>
+        <v>1039900</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-cross</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-new</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>1039900</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
         </is>
       </c>
       <c r="L294" t="n">
-        <v>869900</v>
+        <v>1039900</v>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-cross</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-new</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -11738,38 +11746,30 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1039900</v>
+        <v>813900</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-new</t>
-        </is>
-      </c>
-      <c r="H295" t="n">
-        <v>1039900</v>
-      </c>
-      <c r="I295" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-sedan-cross-4/</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-sw</t>
         </is>
       </c>
       <c r="L295" t="n">
-        <v>1039900</v>
+        <v>813900</v>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-new</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-sw</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -11779,30 +11779,30 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>813900</v>
+        <v>928900</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-sw</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-sw-cross</t>
         </is>
       </c>
       <c r="L296" t="n">
-        <v>813900</v>
+        <v>928900</v>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-sw</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-sw-cross</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -11812,30 +11812,38 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>928900</v>
+        <v>1069900</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-sw-cross</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-sw-cross-new</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
+        <v>1069900</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-wagon-sw-cross-5/</t>
         </is>
       </c>
       <c r="L297" t="n">
-        <v>928900</v>
+        <v>1069900</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-sw-cross</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-sw-cross-new</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -11845,38 +11853,38 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1069900</v>
+        <v>999900</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-sw-cross-new</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-sw-new</t>
         </is>
       </c>
       <c r="H298" t="n">
-        <v>1069900</v>
+        <v>999900</v>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-wagon-sw-cross-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
         </is>
       </c>
       <c r="L298" t="n">
-        <v>1069900</v>
+        <v>999900</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-sw-cross-new</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-sw-new</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -11886,38 +11894,38 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Sportline New</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>999900</v>
+        <v>2093000</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-sw-new</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta/wagon-sportline-1gen-rest</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>999900</v>
+        <v>2093000</v>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-wagon-sw-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-wagon-sw-sportline-5/</t>
         </is>
       </c>
       <c r="L299" t="n">
-        <v>999900</v>
+        <v>2093000</v>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-sw-new</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta/wagon-sportline-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -11927,38 +11935,30 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>2093000</v>
+        <v>721900</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta/wagon-sportline-1gen-rest</t>
-        </is>
-      </c>
-      <c r="H300" t="n">
-        <v>2093000</v>
-      </c>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-wagon-sw-sportline-5/</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta</t>
         </is>
       </c>
       <c r="L300" t="n">
-        <v>2093000</v>
+        <v>721900</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta/wagon-sportline-1gen-rest</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -11968,30 +11968,30 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>721900</v>
+        <v>1166900</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-cng</t>
         </is>
       </c>
       <c r="L301" t="n">
-        <v>721900</v>
+        <v>1166900</v>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-cng</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -12001,30 +12001,38 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1166900</v>
+        <v>899900</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-cng</t>
+          <t>https://altimus-auto.ru/auto/lada/Vesta-new/SEDAN</t>
+        </is>
+      </c>
+      <c r="H302" t="n">
+        <v>899900</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
         </is>
       </c>
       <c r="L302" t="n">
-        <v>1166900</v>
+        <v>899900</v>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-cng</t>
+          <t>https://altimus-auto.ru/auto/lada/Vesta-new/SEDAN</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -12034,38 +12042,30 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>899900</v>
+        <v>1297900</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/Vesta-new/SEDAN</t>
-        </is>
-      </c>
-      <c r="H303" t="n">
-        <v>899900</v>
-      </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-sedan-4/</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-sport</t>
         </is>
       </c>
       <c r="L303" t="n">
-        <v>899900</v>
+        <v>1297900</v>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/Vesta-new/SEDAN</t>
+          <t>https://altimus-auto.ru/auto/lada/vesta-sport</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -12075,30 +12075,30 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sportline New</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1297900</v>
+        <v>1375900</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-sport</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1297900</v>
-      </c>
-      <c r="M304" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/lada/vesta-sport</t>
+          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
+        </is>
+      </c>
+      <c r="H304" t="n">
+        <v>1375900</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -12108,30 +12108,30 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Vesta Sportline New</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1375900</v>
+        <v>506900</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
-        </is>
-      </c>
-      <c r="H305" t="n">
-        <v>1375900</v>
-      </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/lada/vesta/i-res-sedan-sportline-4/</t>
+          <t>https://altimus-auto.ru/auto/lada/xray</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>506900</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -12141,63 +12141,63 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>506900</v>
+        <v>624000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/xray</t>
+          <t>https://altimus-auto.ru/auto/lada/xray-cross</t>
         </is>
       </c>
       <c r="L306" t="n">
-        <v>506900</v>
+        <v>624000</v>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/xray</t>
+          <t>https://altimus-auto.ru/auto/lada/xray-cross</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>926</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Cebrium</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>624000</v>
+        <v>904900</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/lada/xray-cross</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>624000</v>
-      </c>
-      <c r="M307" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/lada/xray-cross</t>
+          <t>https://spb.carso.ru/lifan/cebrium</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>904900</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>https://spb.carso.ru/lifan/cebrium</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -12207,30 +12207,30 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Cebrium</t>
+          <t>Celliya</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>904900</v>
+        <v>799900</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/cebrium</t>
+          <t>https://spb.carso.ru/lifan/celliya</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>904900</v>
+        <v>799900</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/cebrium</t>
+          <t>https://spb.carso.ru/lifan/celliya</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -12240,30 +12240,30 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Celliya</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>799900</v>
+        <v>859900</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/celliya</t>
+          <t>https://spb.carso.ru/lifan/murman</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>799900</v>
+        <v>859900</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/celliya</t>
+          <t>https://spb.carso.ru/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -12273,30 +12273,30 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>859900</v>
+        <v>669900</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/murman</t>
+          <t>https://spb.carso.ru/lifan/myway</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>859900</v>
+        <v>669900</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/murman</t>
+          <t>https://spb.carso.ru/lifan/myway</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>928</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -12306,30 +12306,30 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Smily</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>669900</v>
+        <v>559860</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/myway</t>
+          <t>https://spb.carso.ru/lifan/smily</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>669900</v>
+        <v>559860</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/myway</t>
+          <t>https://spb.carso.ru/lifan/smily</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -12339,30 +12339,30 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Smily</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>559860</v>
+        <v>609900</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/smily</t>
+          <t>https://spb.carso.ru/lifan/solano-ii</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>559860</v>
+        <v>609900</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/smily</t>
+          <t>https://spb.carso.ru/lifan/solano-ii</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -12372,30 +12372,30 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>609900</v>
+        <v>469900</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/solano-ii</t>
+          <t>https://spb.carso.ru/lifan/x50</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>609900</v>
+        <v>469900</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/solano-ii</t>
+          <t>https://spb.carso.ru/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -12405,30 +12405,30 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X60 New</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>469900</v>
+        <v>549900</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/x50</t>
+          <t>https://spb.carso.ru/lifan/x60-new</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>469900</v>
+        <v>549900</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/x50</t>
+          <t>https://spb.carso.ru/lifan/x60-new</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -12438,30 +12438,30 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>X60 New</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>549900</v>
+        <v>758900</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/x60-new</t>
+          <t>https://spb.carso.ru/lifan/x70</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>549900</v>
+        <v>758900</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/x60-new</t>
+          <t>https://spb.carso.ru/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>929</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -12471,63 +12471,71 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>758900</v>
+        <v>1110000</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/x70</t>
+          <t>https://spb.carso.ru/lifan/x80</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>758900</v>
+        <v>1110000</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/x70</t>
+          <t>https://spb.carso.ru/lifan/x80</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1110000</v>
+        <v>1539000</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/x80</t>
+          <t>https://credit-cars-spb.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>1110000</v>
+        <v>1649990</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/lifan/x80</t>
+          <t>https://spb.carso.ru/livan/s6pro</t>
+        </is>
+      </c>
+      <c r="H317" t="n">
+        <v>1539000</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -12537,38 +12545,46 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1539000</v>
+        <v>999000</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
+          <t>https://altimus-auto.ru/auto/livan/x3pro</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>1649990</v>
+        <v>999900</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/livan/s6pro</t>
+          <t>https://spb.carso.ru/livan/x3pro</t>
         </is>
       </c>
       <c r="H318" t="n">
-        <v>1539000</v>
+        <v>999000</v>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/livan/s6-pro/2023-sedan-4/</t>
+          <t>https://credit-cars-spb.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>999000</v>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -12578,87 +12594,79 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>999000</v>
+        <v>1619000</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/livan/x3pro</t>
+          <t>https://credit-cars-spb.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>999900</v>
+        <v>1729900</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/livan/x3pro</t>
+          <t>https://spb.carso.ru/livan/x6pro</t>
         </is>
       </c>
       <c r="H319" t="n">
-        <v>999000</v>
+        <v>1619000</v>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/livan/x3-pro/2022-allroad-5/</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>999000</v>
-      </c>
-      <c r="M319" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/livan/x3pro</t>
+          <t>https://credit-cars-spb.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1619000</v>
+        <v>1450000</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+          <t>https://spb.carso.ru/mg/5</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1729900</v>
+        <v>1450000</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/livan/x6pro</t>
-        </is>
-      </c>
-      <c r="H320" t="n">
-        <v>1619000</v>
-      </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/livan/x6-pro/2023-allroad-5/</t>
+          <t>https://spb.carso.ru/mg/5</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1930000</v>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/mg/5/sedan-2gen</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -12668,38 +12676,38 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1450000</v>
+        <v>1070000</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/5</t>
+          <t>https://altimus-auto.ru/auto/mg/6/liftback-2gen-rest</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>1450000</v>
+        <v>1850000</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/5</t>
+          <t>https://spb.carso.ru/mg/6</t>
         </is>
       </c>
       <c r="L321" t="n">
-        <v>1930000</v>
+        <v>1070000</v>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/mg/5/sedan-2gen</t>
+          <t>https://altimus-auto.ru/auto/mg/6/liftback-2gen-rest</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -12709,38 +12717,38 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1070000</v>
+        <v>2040000</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/mg/6/liftback-2gen-rest</t>
+          <t>https://spb.carso.ru/mg/hs</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1850000</v>
+        <v>2040000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/6</t>
+          <t>https://spb.carso.ru/mg/hs</t>
         </is>
       </c>
       <c r="L322" t="n">
-        <v>1070000</v>
+        <v>2850000</v>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/mg/6/liftback-2gen-rest</t>
+          <t>https://altimus-auto.ru/auto/mg/hs/suv_5d-1gen</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -12750,38 +12758,30 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>RX 5</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>2040000</v>
+        <v>1950000</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/hs</t>
+          <t>https://spb.carso.ru/mg/rx5</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>2040000</v>
+        <v>1950000</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/hs</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>2850000</v>
-      </c>
-      <c r="M323" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/mg/hs/suv_5d-1gen</t>
+          <t>https://spb.carso.ru/mg/rx5</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -12791,30 +12791,30 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>RX 5</t>
+          <t>RX 8</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1950000</v>
+        <v>3500000</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/rx5</t>
+          <t>https://spb.carso.ru/mg/rx8</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1950000</v>
+        <v>3500000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/rx5</t>
+          <t>https://spb.carso.ru/mg/rx8</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -12824,30 +12824,30 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>RX 8</t>
+          <t>RX 9</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/rx8</t>
+          <t>https://spb.carso.ru/mg/rx9</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/rx8</t>
+          <t>https://spb.carso.ru/mg/rx9</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -12857,71 +12857,71 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>RX 9</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>4000000</v>
+        <v>1880000</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/rx9</t>
+          <t>https://spb.carso.ru/mg/zs</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>4000000</v>
+        <v>1880000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/rx9</t>
+          <t>https://spb.carso.ru/mg/zs</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1980000</v>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/mg/zs/cuv-2gen-rest</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1880000</v>
+        <v>925000</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/zs</t>
+          <t>https://spb.carso.ru/mazda/2</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1880000</v>
+        <v>925000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mg/zs</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1980000</v>
-      </c>
-      <c r="M327" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/mg/zs/cuv-2gen-rest</t>
+          <t>https://spb.carso.ru/mazda/2</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>817</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -12931,30 +12931,30 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3 Hatchback</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>925000</v>
+        <v>1624000</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/2</t>
+          <t>https://spb.carso.ru/mazda/3-hatchback</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>925000</v>
+        <v>1624000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/2</t>
+          <t>https://spb.carso.ru/mazda/3-hatchback</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -12964,30 +12964,30 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>3 Hatchback</t>
+          <t>3 New</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1624000</v>
+        <v>1553000</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/3-hatchback</t>
+          <t>https://spb.carso.ru/mazda/3-sedan</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>1624000</v>
+        <v>1553000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/3-hatchback</t>
+          <t>https://spb.carso.ru/mazda/3-sedan</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -12997,30 +12997,30 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>3 New</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>1553000</v>
+        <v>1423000</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/3-sedan</t>
+          <t>https://spb.carso.ru/mazda/6</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>1553000</v>
+        <v>1423000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/3-sedan</t>
+          <t>https://spb.carso.ru/mazda/6</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -13030,30 +13030,30 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1423000</v>
+        <v>1110000</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/6</t>
+          <t>https://spb.carso.ru/mazda/cx-30</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>1423000</v>
+        <v>1110000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/6</t>
+          <t>https://spb.carso.ru/mazda/cx-30</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -13063,30 +13063,30 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1110000</v>
+        <v>1525000</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/cx-30</t>
+          <t>https://spb.carso.ru/mazda/cx-5</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>1110000</v>
+        <v>1525000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/cx-30</t>
+          <t>https://spb.carso.ru/mazda/cx-5</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -13096,30 +13096,30 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>CX-5 2016</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1525000</v>
+        <v>1689000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/cx-5</t>
+          <t>https://spb.carso.ru/mazda/cx-5-old</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>1525000</v>
+        <v>1689000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/cx-5</t>
+          <t>https://spb.carso.ru/mazda/cx-5-old</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -13129,63 +13129,63 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>CX-5 2016</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1689000</v>
+        <v>1908000</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/cx-5-old</t>
+          <t>https://spb.carso.ru/mazda/cx-9</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>1689000</v>
+        <v>1908000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/cx-5-old</t>
+          <t>https://spb.carso.ru/mazda/cx-9</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1908000</v>
+        <v>1435000</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/cx-9</t>
+          <t>https://spb.carso.ru/mitsubishi/asx</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>1908000</v>
+        <v>1435000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mazda/cx-9</t>
+          <t>https://spb.carso.ru/mitsubishi/asx</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -13195,30 +13195,30 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>ASX New</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1435000</v>
+        <v>1749000</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/asx</t>
+          <t>https://spb.carso.ru/mitsubishi/asx-new</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>1435000</v>
+        <v>1749000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/asx</t>
+          <t>https://spb.carso.ru/mitsubishi/asx-new</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -13228,30 +13228,30 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>ASX New</t>
+          <t>Eclipse Cross</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1749000</v>
+        <v>1831000</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/asx-new</t>
+          <t>https://spb.carso.ru/mitsubishi/eclipse-cross</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>1749000</v>
+        <v>1831000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/asx-new</t>
+          <t>https://spb.carso.ru/mitsubishi/eclipse-cross</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -13261,30 +13261,30 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Eclipse Cross</t>
+          <t>L200 New</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1831000</v>
+        <v>2529000</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/eclipse-cross</t>
+          <t>https://spb.carso.ru/mitsubishi/l200-old</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>1831000</v>
+        <v>2529000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/eclipse-cross</t>
+          <t>https://spb.carso.ru/mitsubishi/l200-old</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>932</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -13294,30 +13294,30 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>L200 New</t>
+          <t>Lancer X</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>2529000</v>
+        <v>1349000</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/l200-old</t>
+          <t>https://spb.carso.ru/mitsubishi/lancer-x-sedan</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>2529000</v>
+        <v>1349000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/l200-old</t>
+          <t>https://spb.carso.ru/mitsubishi/lancer-x-sedan</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -13327,30 +13327,30 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Lancer X</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1349000</v>
+        <v>2269000</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/lancer-x-sedan</t>
+          <t>https://spb.carso.ru/mitsubishi/outlander-old</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>1349000</v>
+        <v>2269000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/lancer-x-sedan</t>
+          <t>https://spb.carso.ru/mitsubishi/outlander-old</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -13360,30 +13360,30 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>Pajero</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>2269000</v>
+        <v>5429000</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/outlander-old</t>
+          <t>https://spb.carso.ru/mitsubishi/pajero</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>2269000</v>
+        <v>5429000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/outlander-old</t>
+          <t>https://spb.carso.ru/mitsubishi/pajero</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -13393,63 +13393,79 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Pajero</t>
+          <t>Pajero Sport</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>5429000</v>
+        <v>4036000</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/pajero</t>
+          <t>https://spb.carso.ru/mitsubishi/pajero-sport</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>5429000</v>
+        <v>4036000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/pajero</t>
+          <t>https://spb.carso.ru/mitsubishi/pajero-sport</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Pajero Sport</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>4036000</v>
+        <v>999000</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/pajero-sport</t>
+          <t>https://altimus-auto.ru/auto/moskvich/moskvich-3</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>4036000</v>
+        <v>1859900</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/mitsubishi/pajero-sport</t>
+          <t>https://spb.carso.ru/moskvich/moskvich3</t>
+        </is>
+      </c>
+      <c r="H343" t="n">
+        <v>999000</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/moscvich/3/2022-allroad-5/</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>999000</v>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/moskvich/moskvich-3</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -13459,95 +13475,79 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>999000</v>
+        <v>1249000</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/moskvich/moskvich-3</t>
+          <t>https://altimus-auto.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>1859900</v>
+        <v>1846000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/moskvich/moskvich3</t>
+          <t>https://spb.carso.ru/moskvich/moskvich6</t>
         </is>
       </c>
       <c r="H344" t="n">
-        <v>999000</v>
+        <v>1249000</v>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/moscvich/3/2022-allroad-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/moscvich/6/2023-liftback-5/</t>
         </is>
       </c>
       <c r="L344" t="n">
-        <v>999000</v>
+        <v>1249000</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/moskvich/moskvich-3</t>
+          <t>https://altimus-auto.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>809</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Almera</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1249000</v>
+        <v>948000</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://spb.carso.ru/nissan/almera</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>1846000</v>
+        <v>948000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/moskvich/moskvich6</t>
-        </is>
-      </c>
-      <c r="H345" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="I345" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/moscvich/6/2023-liftback-5/</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="M345" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://spb.carso.ru/nissan/almera</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -13557,30 +13557,30 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Almera</t>
+          <t>Juke</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>948000</v>
+        <v>1404000</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/almera</t>
+          <t>https://spb.carso.ru/nissan/juke</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>948000</v>
+        <v>1404000</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/almera</t>
+          <t>https://spb.carso.ru/nissan/juke</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -13590,30 +13590,30 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Juke</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1404000</v>
+        <v>2889000</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/juke</t>
+          <t>https://spb.carso.ru/nissan/murano</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>1404000</v>
+        <v>2889000</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/juke</t>
+          <t>https://spb.carso.ru/nissan/murano</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -13623,30 +13623,30 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>Pathfinder</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>2889000</v>
+        <v>2990000</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/murano</t>
+          <t>https://spb.carso.ru/nissan/pathfinder</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>2889000</v>
+        <v>2990000</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/murano</t>
+          <t>https://spb.carso.ru/nissan/pathfinder</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>936</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -13656,30 +13656,30 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Pathfinder</t>
+          <t>Patrol</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>2990000</v>
+        <v>4840000</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/pathfinder</t>
+          <t>https://spb.carso.ru/nissan/patrol</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>2990000</v>
+        <v>4840000</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/pathfinder</t>
+          <t>https://spb.carso.ru/nissan/patrol</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -13689,30 +13689,38 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Patrol</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>4840000</v>
+        <v>1233000</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/patrol</t>
+          <t>https://altimus-auto.ru/auto/nissan/qashqai</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>4840000</v>
+        <v>1637000</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/patrol</t>
+          <t>https://spb.carso.ru/nissan/qashqai</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1233000</v>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/nissan/qashqai</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>933</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -13722,38 +13730,30 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Sentra</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1233000</v>
+        <v>1266000</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/nissan/qashqai</t>
+          <t>https://spb.carso.ru/nissan/sentra</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>1637000</v>
+        <v>1266000</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/qashqai</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1233000</v>
-      </c>
-      <c r="M351" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/nissan/qashqai</t>
+          <t>https://spb.carso.ru/nissan/sentra</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>934</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -13763,30 +13763,30 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Sentra</t>
+          <t>Teana</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>1266000</v>
+        <v>1783000</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/sentra</t>
+          <t>https://spb.carso.ru/nissan/teana</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>1266000</v>
+        <v>1783000</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/sentra</t>
+          <t>https://spb.carso.ru/nissan/teana</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -13796,30 +13796,38 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Teana</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1783000</v>
+        <v>1098000</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/teana</t>
+          <t>https://altimus-auto.ru/auto/nissan/terrano-new</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>1783000</v>
+        <v>1520000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/teana</t>
+          <t>https://spb.carso.ru/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1098000</v>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/nissan/terrano-new</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>935</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -13829,38 +13837,30 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Tiida</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1098000</v>
+        <v>1129000</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/nissan/terrano-new</t>
+          <t>https://spb.carso.ru/nissan/tiida</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>1520000</v>
+        <v>1129000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/terrano</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1098000</v>
-      </c>
-      <c r="M354" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/nissan/terrano-new</t>
+          <t>https://spb.carso.ru/nissan/tiida</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -13870,71 +13870,87 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Tiida</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1129000</v>
+        <v>1501000</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/tiida</t>
+          <t>https://altimus-auto.ru/auto/nissan/x-trail</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>1129000</v>
+        <v>1942000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/tiida</t>
+          <t>https://spb.carso.ru/nissan/x-trail</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1501000</v>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/nissan/x-trail</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1501000</v>
+        <v>1309900</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/nissan/x-trail</t>
+          <t>https://spb.carso.ru/omoda/c5</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>1942000</v>
+        <v>1309900</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/nissan/x-trail</t>
+          <t>https://spb.carso.ru/omoda/c5</t>
+        </is>
+      </c>
+      <c r="H356" t="n">
+        <v>1319000</v>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/omoda/c5/i-allroad-5/</t>
         </is>
       </c>
       <c r="L356" t="n">
-        <v>1501000</v>
+        <v>1319000</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/nissan/x-trail</t>
+          <t>https://altimus-auto.ru/auto/omoda/c5</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -13944,46 +13960,38 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1309900</v>
+        <v>1419000</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/omoda/c5</t>
+          <t>https://spb.carso.ru/omoda/c5-new</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>1309900</v>
+        <v>1419000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/omoda/c5</t>
+          <t>https://spb.carso.ru/omoda/c5-new</t>
         </is>
       </c>
       <c r="H357" t="n">
-        <v>1319000</v>
+        <v>1519000</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/omoda/c5/2022-allroad-5/</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1319000</v>
-      </c>
-      <c r="M357" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/omoda/c5</t>
+          <t>https://credit-cars-spb.ru/cars-new/omoda/c5/i-res-allroad-5/</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -13993,38 +14001,46 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1419000</v>
+        <v>1209900</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/omoda/c5-new</t>
+          <t>https://spb.carso.ru/omoda/s5</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>1419000</v>
+        <v>1209900</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/omoda/c5-new</t>
+          <t>https://spb.carso.ru/omoda/s5</t>
         </is>
       </c>
       <c r="H358" t="n">
-        <v>1519000</v>
+        <v>1219000</v>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/omoda/c5/i-res-allroad-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/omoda/s5/2022-sedan-4/</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1219000</v>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/omoda/s5-2023</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -14034,95 +14050,79 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1209900</v>
+        <v>1359900</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/omoda/s5</t>
+          <t>https://spb.carso.ru/omoda/s5-gt</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>1209900</v>
+        <v>1359900</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/omoda/s5</t>
+          <t>https://spb.carso.ru/omoda/s5-gt</t>
         </is>
       </c>
       <c r="H359" t="n">
-        <v>1219000</v>
+        <v>1799000</v>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/omoda/s5/2022-sedan-4/</t>
+          <t>https://credit-cars-spb.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
         </is>
       </c>
       <c r="L359" t="n">
-        <v>1219000</v>
+        <v>1799000</v>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/omoda/s5-2023</t>
+          <t>https://altimus-auto.ru/auto/omoda/s5-gt</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>945</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Opel</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>Antara</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1359900</v>
+        <v>1713450</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/omoda/s5-gt</t>
+          <t>https://spb.carso.ru/opel/antara</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>1359900</v>
+        <v>1713450</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/omoda/s5-gt</t>
-        </is>
-      </c>
-      <c r="H360" t="n">
-        <v>1799000</v>
-      </c>
-      <c r="I360" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/omoda/s5-gt/2023-sedan-4/</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1799000</v>
-      </c>
-      <c r="M360" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/omoda/s5-gt</t>
+          <t>https://spb.carso.ru/opel/antara</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>942</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -14132,30 +14132,30 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Antara</t>
+          <t>Astra Family Hatchback</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1713450</v>
+        <v>1187000</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/antara</t>
+          <t>https://spb.carso.ru/opel/astra-family-hatchback</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>1713450</v>
+        <v>1187000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/antara</t>
+          <t>https://spb.carso.ru/opel/astra-family-hatchback</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>943</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -14165,30 +14165,30 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Astra Family Hatchback</t>
+          <t>Astra Family Sedan</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1187000</v>
+        <v>1217000</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-family-hatchback</t>
+          <t>https://spb.carso.ru/opel/astra-family-sedan</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>1187000</v>
+        <v>1217000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-family-hatchback</t>
+          <t>https://spb.carso.ru/opel/astra-family-sedan</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>944</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -14198,30 +14198,30 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Astra Family Sedan</t>
+          <t>Astra Family Universal</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1217000</v>
+        <v>1245000</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-family-sedan</t>
+          <t>https://spb.carso.ru/opel/astra-family-universal</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>1217000</v>
+        <v>1245000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-family-sedan</t>
+          <t>https://spb.carso.ru/opel/astra-family-universal</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>937</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -14231,30 +14231,30 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Astra Family Universal</t>
+          <t>Astra GTC</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>1245000</v>
+        <v>1441990</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-family-universal</t>
+          <t>https://spb.carso.ru/opel/astra-3dr</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>1245000</v>
+        <v>1441990</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-family-universal</t>
+          <t>https://spb.carso.ru/opel/astra-3dr</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -14264,30 +14264,30 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Astra GTC</t>
+          <t>Astra Hatchback</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1441990</v>
+        <v>1165960</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-3dr</t>
+          <t>https://spb.carso.ru/opel/astra-hb</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>1441990</v>
+        <v>1165960</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-3dr</t>
+          <t>https://spb.carso.ru/opel/astra-hb</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>938</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -14297,30 +14297,30 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Astra Hatchback</t>
+          <t>Astra Sedan</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1165960</v>
+        <v>1188960</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-hb</t>
+          <t>https://spb.carso.ru/opel/astra-sedan</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>1165960</v>
+        <v>1188960</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-hb</t>
+          <t>https://spb.carso.ru/opel/astra-sedan</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>939</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -14330,30 +14330,30 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Astra Sedan</t>
+          <t>Astra Universal</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1188960</v>
+        <v>1181760</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-sedan</t>
+          <t>https://spb.carso.ru/opel/astra-wagon</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>1188960</v>
+        <v>1181760</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-sedan</t>
+          <t>https://spb.carso.ru/opel/astra-wagon</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -14363,30 +14363,30 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Astra Universal</t>
+          <t>Combo Life</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1181760</v>
+        <v>1524000</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-wagon</t>
+          <t>https://spb.carso.ru/opel/combo-life</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>1181760</v>
+        <v>1524000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/astra-wagon</t>
+          <t>https://spb.carso.ru/opel/combo-life</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -14396,30 +14396,30 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Combo Life</t>
+          <t>Crossland</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1524000</v>
+        <v>1929000</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/combo-life</t>
+          <t>https://spb.carso.ru/opel/%D1%81rossland</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>1524000</v>
+        <v>1929000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/combo-life</t>
+          <t>https://spb.carso.ru/opel/%D1%81rossland</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -14429,30 +14429,30 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Crossland</t>
+          <t>Grandland X</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1929000</v>
+        <v>2099000</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/%D1%81rossland</t>
+          <t>https://spb.carso.ru/opel/grandland-x</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>1929000</v>
+        <v>2099000</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/%D1%81rossland</t>
+          <t>https://spb.carso.ru/opel/grandland-x</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -14462,30 +14462,30 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Grandland X</t>
+          <t>Mokka</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>2099000</v>
+        <v>1419000</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/grandland-x</t>
+          <t>https://spb.carso.ru/opel/mokka</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>2099000</v>
+        <v>1419000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/grandland-x</t>
+          <t>https://spb.carso.ru/opel/mokka</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -14495,96 +14495,120 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Mokka</t>
+          <t>Zafira Life</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>1419000</v>
+        <v>2979900</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/mokka</t>
+          <t>https://spb.carso.ru/opel/zafira-life</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>1419000</v>
+        <v>2979900</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/mokka</t>
+          <t>https://spb.carso.ru/opel/zafira-life</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Zafira Life</t>
+          <t>Paladin</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>2979900</v>
+        <v>2740000</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/zafira-life</t>
+          <t>https://spb.carso.ru/oting/paladin</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>2979900</v>
+        <v>2740000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/opel/zafira-life</t>
+          <t>https://spb.carso.ru/oting/paladin</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Paladin</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>2740000</v>
+        <v>854000</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/oting/paladin</t>
+          <t>https://spb.carso.ru/renault/arkana</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>2740000</v>
+        <v>854000</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/oting/paladin</t>
+          <t>https://spb.carso.ru/renault/arkana</t>
+        </is>
+      </c>
+      <c r="H374" t="n">
+        <v>1399000</v>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/renault/arkana/i-allroad-5/</t>
+        </is>
+      </c>
+      <c r="J374" t="n">
+        <v>1399000</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>https://renault-nnov.ru/auto/renault/arkana</t>
+        </is>
+      </c>
+      <c r="L374" t="n">
+        <v>1399000</v>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -14594,54 +14618,38 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Dokker</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>854000</v>
+        <v>844499</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/arkana</t>
+          <t>https://spb.carso.ru/renault/dokker</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>854000</v>
+        <v>844499</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/arkana</t>
-        </is>
-      </c>
-      <c r="H375" t="n">
-        <v>1399000</v>
-      </c>
-      <c r="I375" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/renault/arkana/i-allroad-5/</t>
+          <t>https://spb.carso.ru/renault/dokker</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>1399000</v>
+        <v>904990</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>https://renault-nnov.ru/auto/renault/arkana</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1399000</v>
-      </c>
-      <c r="M375" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/renault/arkana</t>
+          <t>https://renault-nnov.ru/auto/renault/dokker</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -14651,38 +14659,30 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Dokker</t>
+          <t>Dokker Stepway</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>844499</v>
+        <v>969990</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/dokker</t>
+          <t>https://spb.carso.ru/renault/dokker-stepway</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>844499</v>
+        <v>969990</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/dokker</t>
-        </is>
-      </c>
-      <c r="J376" t="n">
-        <v>904990</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>https://renault-nnov.ru/auto/renault/dokker</t>
+          <t>https://spb.carso.ru/renault/dokker-stepway</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>949</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -14692,30 +14692,30 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Dokker Stepway</t>
+          <t>Dokker Van</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>969990</v>
+        <v>849000</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/dokker-stepway</t>
+          <t>https://spb.carso.ru/renault/dokker-van</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>969990</v>
+        <v>849000</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/dokker-stepway</t>
+          <t>https://spb.carso.ru/renault/dokker-van</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -14725,30 +14725,54 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Dokker Van</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>849000</v>
+        <v>502000</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/dokker-van</t>
+          <t>https://spb.carso.ru/renault/duster</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>849000</v>
+        <v>502000</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/dokker-van</t>
+          <t>https://spb.carso.ru/renault/duster</t>
+        </is>
+      </c>
+      <c r="H378" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/renault/duster/ii-allroad-5/</t>
+        </is>
+      </c>
+      <c r="J378" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>https://renault-nnov.ru/auto/renault/duster</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/renault/duster</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -14758,54 +14782,30 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>502000</v>
+        <v>698000</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/duster</t>
+          <t>https://spb.carso.ru/renault/duster-new</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>502000</v>
+        <v>698000</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/duster</t>
-        </is>
-      </c>
-      <c r="H379" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="I379" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/renault/duster/ii-allroad-5/</t>
-        </is>
-      </c>
-      <c r="J379" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>https://renault-nnov.ru/auto/renault/duster</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="M379" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/renault/duster</t>
+          <t>https://spb.carso.ru/renault/duster-new</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>946</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -14815,30 +14815,30 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Fluence</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>698000</v>
+        <v>1545990</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/duster-new</t>
+          <t>https://spb.carso.ru/renault/fluence</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>698000</v>
+        <v>1545990</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/duster-new</t>
+          <t>https://spb.carso.ru/renault/fluence</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -14848,30 +14848,54 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Fluence</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>1545990</v>
+        <v>714000</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/fluence</t>
+          <t>https://spb.carso.ru/renault/kaptur</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>1545990</v>
+        <v>714000</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/fluence</t>
+          <t>https://spb.carso.ru/renault/kaptur</t>
+        </is>
+      </c>
+      <c r="H381" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
+        </is>
+      </c>
+      <c r="J381" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>https://renault-nnov.ru/auto/renault/kaptur</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -14881,54 +14905,30 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Kaptur New</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>714000</v>
+        <v>804000</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/kaptur</t>
+          <t>https://spb.carso.ru/renault/kaptur-new</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>714000</v>
+        <v>804000</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/kaptur</t>
-        </is>
-      </c>
-      <c r="H382" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="I382" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/renault/kaptur/i-res-allroad-5/</t>
-        </is>
-      </c>
-      <c r="J382" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>https://renault-nnov.ru/auto/renault/kaptur</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="M382" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/renault/kaptur</t>
+          <t>https://spb.carso.ru/renault/kaptur-new</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -14938,30 +14938,38 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Kaptur New</t>
+          <t>Koleos</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>804000</v>
+        <v>1688900</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/kaptur-new</t>
+          <t>https://spb.carso.ru/renault/koleos</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>804000</v>
+        <v>1688900</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/kaptur-new</t>
+          <t>https://spb.carso.ru/renault/koleos</t>
+        </is>
+      </c>
+      <c r="J383" t="n">
+        <v>1699000</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>https://renault-nnov.ru/auto/renault/koleos</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -14971,38 +14979,54 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Koleos</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>1688900</v>
+        <v>629000</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/koleos</t>
+          <t>https://altimus-auto.ru/auto/renault/logan</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>1688900</v>
+        <v>1054000</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/koleos</t>
+          <t>https://spb.carso.ru/renault/logan-old</t>
+        </is>
+      </c>
+      <c r="H384" t="n">
+        <v>629000</v>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/renault/logan/ii-res-sedan-4/</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1699000</v>
+        <v>629000</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>https://renault-nnov.ru/auto/renault/koleos</t>
+          <t>https://renault-nnov.ru/auto/renault/logan</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>629000</v>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/renault/logan</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -15012,54 +15036,46 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>629000</v>
+        <v>591000</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/renault/logan</t>
+          <t>https://spb.carso.ru/renault/logan-stepway</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>1054000</v>
+        <v>591000</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/logan-old</t>
+          <t>https://spb.carso.ru/renault/logan-stepway</t>
         </is>
       </c>
       <c r="H385" t="n">
-        <v>629000</v>
+        <v>799000</v>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/renault/logan/ii-res-sedan-4/</t>
-        </is>
-      </c>
-      <c r="J385" t="n">
-        <v>629000</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>https://renault-nnov.ru/auto/renault/logan</t>
+          <t>https://credit-cars-spb.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
         </is>
       </c>
       <c r="L385" t="n">
-        <v>629000</v>
+        <v>799000</v>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/renault/logan</t>
+          <t>https://altimus-auto.ru/auto/renault/logan-stepway</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -15069,46 +15085,30 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Megane</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>591000</v>
+        <v>1339000</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/logan-stepway</t>
+          <t>https://spb.carso.ru/renault/megane-hatchback</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>591000</v>
+        <v>1339000</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/logan-stepway</t>
-        </is>
-      </c>
-      <c r="H386" t="n">
-        <v>799000</v>
-      </c>
-      <c r="I386" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/renault/logan/ii-res-sedan-stepway-4/</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>799000</v>
-      </c>
-      <c r="M386" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/renault/logan-stepway</t>
+          <t>https://spb.carso.ru/renault/megane-hatchback</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -15118,30 +15118,54 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Megane</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>1339000</v>
+        <v>759000</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/megane-hatchback</t>
+          <t>https://altimus-auto.ru/auto/renault/sandero</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>1339000</v>
+        <v>1054000</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/megane-hatchback</t>
+          <t>https://spb.carso.ru/renault/sandero-old</t>
+        </is>
+      </c>
+      <c r="H387" t="n">
+        <v>759000</v>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>https://credit-cars-spb.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
+        </is>
+      </c>
+      <c r="J387" t="n">
+        <v>759000</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>https://renault-nnov.ru/auto/renault/sandero</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>759000</v>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>https://altimus-auto.ru/auto/renault/sandero</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -15151,111 +15175,87 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>759000</v>
+        <v>849000</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/renault/sandero</t>
+          <t>https://altimus-auto.ru/auto/renault/sandero-stepway</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>1054000</v>
+        <v>1209990</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/sandero-old</t>
+          <t>https://spb.carso.ru/renault/sandero-stepway-old</t>
         </is>
       </c>
       <c r="H388" t="n">
-        <v>759000</v>
+        <v>849000</v>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/renault/sandero/ii-res-hatchback-5/</t>
+          <t>https://credit-cars-spb.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>759000</v>
+        <v>849000</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>https://renault-nnov.ru/auto/renault/sandero</t>
+          <t>https://renault-nnov.ru/auto/renault/sandero-stepway</t>
         </is>
       </c>
       <c r="L388" t="n">
-        <v>759000</v>
+        <v>849000</v>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/renault/sandero</t>
+          <t>https://altimus-auto.ru/auto/renault/sandero-stepway</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>849000</v>
+        <v>1290000</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/renault/sandero-stepway</t>
+          <t>https://spb.carso.ru/swm/g01</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>1209990</v>
+        <v>1290000</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/sandero-stepway-old</t>
-        </is>
-      </c>
-      <c r="H389" t="n">
-        <v>849000</v>
-      </c>
-      <c r="I389" t="inlineStr">
-        <is>
-          <t>https://credit-cars-spb.ru/cars-new/renault/sandero/ii-res-hatchback-stepway-5/</t>
-        </is>
-      </c>
-      <c r="J389" t="n">
-        <v>849000</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>https://renault-nnov.ru/auto/renault/sandero-stepway</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>849000</v>
-      </c>
-      <c r="M389" t="inlineStr">
-        <is>
-          <t>https://altimus-auto.ru/auto/renault/sandero-stepway</t>
+          <t>https://spb.carso.ru/swm/g01</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -15265,30 +15265,30 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>1290000</v>
+        <v>1390000</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/swm/g01</t>
+          <t>https://spb.carso.ru/swm/g01f</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>1290000</v>
+        <v>1390000</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/swm/g01</t>
+          <t>https://spb.carso.ru/swm/g01f</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -15298,23 +15298,23 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>1390000</v>
+        <v>1500000</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/swm/g01f</t>
+          <t>https://spb.carso.ru/swm/g05-pro</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>1390000</v>
+        <v>1500000</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/swm/g01f</t>
+          <t>https://spb.carso.ru/swm/g05-pro</t>
         </is>
       </c>
     </row>

--- a/xlsx/spb.xlsx
+++ b/xlsx/spb.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q515"/>
+  <dimension ref="A1:S515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,16 @@
           <t>ac-neva.ru</t>
         </is>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>astella-drive.ru_price</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>astella-drive.ru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -721,15 +731,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1775000</v>
+        <v>1040000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/baic/x55/2022-allroad-5/</t>
+          <t>https://spb.carso.ru/baic/x55</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2120000</v>
+        <v>1040000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -770,15 +780,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1850000</v>
+        <v>1500000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/baic/x7/i-allroad-5/</t>
+          <t>https://spb.carso.ru/baic/x7</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2250000</v>
+        <v>1500000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -819,7 +829,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2550000</v>
+        <v>2150000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -901,7 +911,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>935990</v>
+        <v>735990</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -909,7 +919,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>935990</v>
+        <v>735990</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1054,6 +1064,14 @@
           <t>https://avalon-newspb.ru/new/changan/alsvin</t>
         </is>
       </c>
+      <c r="R12" t="n">
+        <v>1046000</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/changan/alsvin</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1259,6 +1277,14 @@
           <t>https://ac-neva.ru/newauto/changan/cs35plus-new/</t>
         </is>
       </c>
+      <c r="R17" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/changan/cs35plus-new</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1310,11 +1336,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1300000</v>
+        <v>756900</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/changan/cs55</t>
+          <t>https://astella-drive.ru/new/changan/cs55</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1341,6 +1367,14 @@
           <t>https://ac-neva.ru/newauto/changan/cs55/</t>
         </is>
       </c>
+      <c r="R19" t="n">
+        <v>756900</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/changan/cs55</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1815,6 +1849,14 @@
           <t>https://ac-neva.ru/newauto/changan/eado-plus/</t>
         </is>
       </c>
+      <c r="R29" t="n">
+        <v>1409900</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/changan/eado-plus</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1997,11 +2039,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2039900</v>
+        <v>1959900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/changan/uni-k</t>
+          <t>https://astella-drive.ru/new/changan/uni-k</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2044,6 +2086,14 @@
           <t>https://ac-neva.ru/newauto/changan/uni-k/</t>
         </is>
       </c>
+      <c r="R34" t="n">
+        <v>1959900</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/changan/uni-k</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2110,6 +2160,14 @@
           <t>https://avalon-newspb.ru/new/changan/cs55plus</t>
         </is>
       </c>
+      <c r="R36" t="n">
+        <v>2030000</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/changan/cs55plus</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2291,15 +2349,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1790000</v>
+        <v>1099900</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/chery/arrizo-8</t>
+          <t>https://spb.carso.ru/chery/arrizo8</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1799900</v>
+        <v>1099900</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2338,6 +2396,14 @@
           <t>https://ac-neva.ru/newauto/chery/arrizo-8/</t>
         </is>
       </c>
+      <c r="R40" t="n">
+        <v>1564000</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/chery/arrizo-8</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2839,6 +2905,14 @@
           <t>https://ac-neva.ru/newauto/chery/tiggo-4-pro/</t>
         </is>
       </c>
+      <c r="R53" t="n">
+        <v>1076900</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/chery/tiggo-4-pro</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2929,6 +3003,14 @@
           <t>https://ac-neva.ru/newauto/chery/tiggo-7/</t>
         </is>
       </c>
+      <c r="R55" t="n">
+        <v>847300</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/chery/tiggo-7</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2994,6 +3076,14 @@
           <t>https://ac-neva.ru/newauto/chery/tiggo-7-pro/</t>
         </is>
       </c>
+      <c r="R56" t="n">
+        <v>1034900</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/chery/tiggo-7-pro</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3232,11 +3322,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1287000</v>
+        <v>1226900</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/chery/tiggo-8-pro/</t>
+          <t>https://astella-drive.ru/new/chery/tiggo-8-pro</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,6 +3369,14 @@
           <t>https://ac-neva.ru/newauto/chery/tiggo-8-pro/</t>
         </is>
       </c>
+      <c r="R61" t="n">
+        <v>1226900</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/chery/tiggo-8-pro</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3428,7 +3526,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3119900</v>
+        <v>2119900</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3436,7 +3534,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3119900</v>
+        <v>2119900</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4159,7 +4257,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1900000</v>
+        <v>1300000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4167,7 +4265,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1900000</v>
+        <v>1300000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4192,7 +4290,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2950000</v>
+        <v>2050000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4200,7 +4298,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2950000</v>
+        <v>2050000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4406,15 +4504,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1826000</v>
+        <v>1719900</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/exeed/lx/</t>
+          <t>https://spb.carso.ru/cheryexeed/lx</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1969900</v>
+        <v>1719900</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4545,15 +4643,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2700000</v>
+        <v>2420000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/exeed/rx</t>
+          <t>https://spb.carso.ru/cheryexeed/rx</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3570000</v>
+        <v>2420000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4610,15 +4708,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1619900</v>
+        <v>1920000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/cheryexeed/txl</t>
+          <t>https://avalon-newspb.ru/new/exeed/txl</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1619900</v>
+        <v>2019900</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4690,6 +4788,14 @@
           <t>https://ac-neva.ru/newauto/exeed/txl-new/</t>
         </is>
       </c>
+      <c r="R96" t="n">
+        <v>2808000</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/exeed/txl-new</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4749,7 +4855,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3479900</v>
+        <v>2999900</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4872,7 +4978,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2440000</v>
+        <v>1640000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -4903,6 +5009,14 @@
           <t>https://avalon-newspb.ru/new/faw/bestune-b70</t>
         </is>
       </c>
+      <c r="R101" t="n">
+        <v>1525000</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/faw/bestune-b70</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4921,7 +5035,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2600000</v>
+        <v>1660000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4929,7 +5043,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2600000</v>
+        <v>1660000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -4962,7 +5076,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2401000</v>
+        <v>1501000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -4993,6 +5107,14 @@
           <t>https://avalon-newspb.ru/new/faw/bestune-t55</t>
         </is>
       </c>
+      <c r="R103" t="n">
+        <v>1682300</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/faw/bestune-t55</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5019,7 +5141,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2854000</v>
+        <v>1604000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5068,7 +5190,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2950000</v>
+        <v>1750000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5076,7 +5198,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2950000</v>
+        <v>1750000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5150,15 +5272,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2055000</v>
+        <v>1763000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://credit-cars-spb.ru/cars-new/faw/bestune-t99/i-res-allroad-5/</t>
+          <t>https://spb.carso.ru/faw/bestune-t99-new</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3063000</v>
+        <v>1763000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6256,6 +6378,14 @@
           <t>https://avalon-newspb.ru/new/geely/atlas-new</t>
         </is>
       </c>
+      <c r="R134" t="n">
+        <v>1957990</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/geely/atlas-new</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6380,11 +6510,11 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>619900</v>
+        <v>616990</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/geely/coolray</t>
+          <t>https://astella-drive.ru/new/geely/coolray</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6427,6 +6557,14 @@
           <t>https://ac-neva.ru/newauto/geely/coolray/</t>
         </is>
       </c>
+      <c r="R137" t="n">
+        <v>616990</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/geely/coolray</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6445,11 +6583,11 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1340000</v>
+        <v>1219990</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/geely/coolray-new</t>
+          <t>https://astella-drive.ru/new/geely/coolray-new</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6468,6 +6606,14 @@
           <t>https://avalon-newspb.ru/new/geely/coolray-new</t>
         </is>
       </c>
+      <c r="R138" t="n">
+        <v>1219990</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/geely/coolray-new</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6575,6 +6721,14 @@
           <t>https://altimus-auto.ru/auto/geely/Emgrand/sedan-2gen</t>
         </is>
       </c>
+      <c r="R141" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/geely/emgrand-2023</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6963,11 +7117,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>2739990</v>
+        <v>2259990</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/geely/monjaro</t>
+          <t>https://astella-drive.ru/new/geely/monjaro</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7010,6 +7164,14 @@
           <t>https://ac-neva.ru/newauto/geely/monjaro/</t>
         </is>
       </c>
+      <c r="R152" t="n">
+        <v>2259990</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/geely/monjaro</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7216,11 +7378,11 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1890000</v>
+        <v>1614500</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/geely/tugella/</t>
+          <t>https://astella-drive.ru/new/geely/tugella</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7255,6 +7417,14 @@
           <t>https://ac-neva.ru/newauto/geely/tugella/</t>
         </is>
       </c>
+      <c r="R157" t="n">
+        <v>1614500</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/geely/tugella</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7534,6 +7704,14 @@
           <t>https://ac-neva.ru/newauto/haval/dargo/</t>
         </is>
       </c>
+      <c r="R164" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/haval/dargo</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7599,6 +7777,14 @@
           <t>https://ac-neva.ru/newauto/haval/dargo-x/</t>
         </is>
       </c>
+      <c r="R165" t="n">
+        <v>2140000</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/haval/dargo-x</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8123,6 +8309,14 @@
           <t>https://avalon-newspb.ru/new/haval/h6</t>
         </is>
       </c>
+      <c r="R177" t="n">
+        <v>920000</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/haval/h6</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8305,11 +8499,11 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>689900</v>
+        <v>689000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/haval/jolion</t>
+          <t>https://astella-drive.ru/new/haval/jolion</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -8352,6 +8546,14 @@
           <t>https://ac-neva.ru/newauto/haval/jolion/</t>
         </is>
       </c>
+      <c r="R182" t="n">
+        <v>689000</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/haval/jolion</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8370,11 +8572,11 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>899000</v>
+        <v>689000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/haval/jolion-new</t>
+          <t>https://astella-drive.ru/new/haval/jolion-new</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -8393,6 +8595,14 @@
           <t>https://avalon-newspb.ru/new/haval/jolion-new</t>
         </is>
       </c>
+      <c r="R183" t="n">
+        <v>689000</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/haval/jolion-new</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8649,15 +8859,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>760000</v>
+        <v>737000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/hyundai/creta</t>
+          <t>https://spb.carso.ru/hyundai/creta</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>987000</v>
+        <v>737000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -8706,15 +8916,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>920000</v>
+        <v>839000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/hyundai/new-creta</t>
+          <t>https://spb.carso.ru/hyundai/creta-new</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1189000</v>
+        <v>839000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -8737,6 +8947,14 @@
           <t>https://ac-neva.ru/newauto/hyundai/creta-new/</t>
         </is>
       </c>
+      <c r="R191" t="n">
+        <v>956000</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/hyundai/new-creta</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8985,7 +9203,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>4604999</v>
+        <v>4004999</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9083,15 +9301,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1900000</v>
+        <v>1619000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/hyundai/santa-fe-2020</t>
+          <t>https://spb.carso.ru/hyundai/santa-fe</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2719000</v>
+        <v>1619000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9198,11 +9416,11 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>690000</v>
+        <v>421000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/hyundai/solaris</t>
+          <t>https://astella-drive.ru/new/hyundai/solaris</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -9237,6 +9455,14 @@
           <t>https://avalon-newspb.ru/new/hyundai/solaris</t>
         </is>
       </c>
+      <c r="R203" t="n">
+        <v>421000</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/hyundai/solaris</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9296,7 +9522,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>975000</v>
+        <v>875000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -9368,6 +9594,14 @@
           <t>https://avalon-newspb.ru/new/hyundai/sonata</t>
         </is>
       </c>
+      <c r="R206" t="n">
+        <v>1481000</v>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/hyundai/sonata</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9386,7 +9620,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1719000</v>
+        <v>1319000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -9394,7 +9628,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1719000</v>
+        <v>1319000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -9517,15 +9751,15 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1639000</v>
+        <v>1399000</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/hyundai/tucson-new/</t>
+          <t>https://spb.carso.ru/hyundai/tucson-new</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1799000</v>
+        <v>1399000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -9968,11 +10202,11 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>706000</v>
+        <v>436000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/jac/s3/</t>
+          <t>https://astella-drive.ru/new/jac/s3</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10007,6 +10241,14 @@
           <t>https://ac-neva.ru/newauto/jac/s3/</t>
         </is>
       </c>
+      <c r="R221" t="n">
+        <v>436000</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/jac/s3</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -10058,11 +10300,11 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>889000</v>
+        <v>686000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/jac/s5</t>
+          <t>https://astella-drive.ru/new/jac/s5</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -10081,6 +10323,14 @@
           <t>https://altimus-auto.ru/auto/jac/s5</t>
         </is>
       </c>
+      <c r="R223" t="n">
+        <v>686000</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/jac/s5</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -10138,6 +10388,14 @@
           <t>https://ac-neva.ru/newauto/jac/s7/</t>
         </is>
       </c>
+      <c r="R224" t="n">
+        <v>1156000</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/jac/s7</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -10449,6 +10707,14 @@
           <t>https://ac-neva.ru/newauto/jaecoo/jaecoo-j7/</t>
         </is>
       </c>
+      <c r="R231" t="n">
+        <v>2016000</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/jaecoo/j7</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10563,6 +10829,14 @@
           <t>https://avalon-newspb.ru/new/jetour/dashing</t>
         </is>
       </c>
+      <c r="R233" t="n">
+        <v>1399900</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/jetour/dashing</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10792,6 +11066,14 @@
           <t>https://avalon-newspb.ru/new/jetour/x70-plus</t>
         </is>
       </c>
+      <c r="R238" t="n">
+        <v>1899900</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/jetour/x70-plus</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10849,6 +11131,14 @@
           <t>https://avalon-newspb.ru/new/jetour/x90-plus</t>
         </is>
       </c>
+      <c r="R239" t="n">
+        <v>2249900</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/jetour/x90-plus</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -11143,6 +11433,14 @@
           <t>https://avalon-newspb.ru/new/kaiyi/e5</t>
         </is>
       </c>
+      <c r="R245" t="n">
+        <v>1364000</v>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/kaiyi/e5</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -11200,6 +11498,14 @@
           <t>https://avalon-newspb.ru/new/kaiyi/x3</t>
         </is>
       </c>
+      <c r="R246" t="n">
+        <v>1417650</v>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/kaiyi/x3</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -11275,11 +11581,11 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1798740</v>
+        <v>1711900</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/kaiyi/x7-kunlun</t>
+          <t>https://astella-drive.ru/new/kaiyi/x7-kunlun</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -11306,6 +11612,14 @@
           <t>https://avalon-newspb.ru/new/kaiyi/x7-kunlun</t>
         </is>
       </c>
+      <c r="R248" t="n">
+        <v>1711900</v>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/kaiyi/x7-kunlun</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -11456,15 +11770,15 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>2530000</v>
+        <v>2104900</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/kia/carnival</t>
+          <t>https://spb.carso.ru/kia/%D1%81arnival</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>4104900</v>
+        <v>2104900</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -11505,15 +11819,15 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1210000</v>
+        <v>1045370</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/kia/ceed</t>
+          <t>https://spb.carso.ru/kia/ceed</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1345370</v>
+        <v>1045370</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -11677,7 +11991,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1397530</v>
+        <v>1097530</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -11685,7 +11999,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1397530</v>
+        <v>1097530</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -11800,7 +12114,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1434900</v>
+        <v>1134900</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -11866,11 +12180,11 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1390000</v>
+        <v>1376900</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/kia/k5</t>
+          <t>https://astella-drive.ru/new/kia/k5</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -11913,6 +12227,14 @@
           <t>https://ac-neva.ru/newauto/kia/k5/</t>
         </is>
       </c>
+      <c r="R263" t="n">
+        <v>1376900</v>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/kia/k5</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -12013,7 +12335,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>4169900</v>
+        <v>3769900</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -12021,7 +12343,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>4169900</v>
+        <v>3769900</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -12112,7 +12434,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>694900</v>
+        <v>604900</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -12120,7 +12442,7 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>694900</v>
+        <v>604900</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -12151,6 +12473,14 @@
           <t>https://avalon-newspb.ru/new/kia/picanto</t>
         </is>
       </c>
+      <c r="R269" t="n">
+        <v>740000</v>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/kia/picanto</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -12348,6 +12678,14 @@
           <t>https://avalon-newspb.ru/new/kia/rio</t>
         </is>
       </c>
+      <c r="R274" t="n">
+        <v>620900</v>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/kia/rio</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -12399,15 +12737,15 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>850900</v>
+        <v>814900</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/kia/rio/</t>
+          <t>https://spb.carso.ru/kia/rio-new</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>1114900</v>
+        <v>814900</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -12448,7 +12786,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>1254900</v>
+        <v>854900</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -12501,7 +12839,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/kia/rio-x-line</t>
+          <t>https://astella-drive.ru/new/kia/rio-x-line</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -12528,6 +12866,14 @@
           <t>https://avalon-newspb.ru/new/kia/rio-x-line</t>
         </is>
       </c>
+      <c r="R278" t="n">
+        <v>600000</v>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/kia/rio-x-line</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12554,7 +12900,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>1739900</v>
+        <v>1339900</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -12593,6 +12939,14 @@
           <t>https://ac-neva.ru/newauto/kia/seltos/</t>
         </is>
       </c>
+      <c r="R279" t="n">
+        <v>986900</v>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/kia/seltos</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12611,7 +12965,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1779900</v>
+        <v>1179900</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -12619,7 +12973,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>1779900</v>
+        <v>1179900</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -12668,15 +13022,15 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2263000</v>
+        <v>1799900</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/kia/sorento/</t>
+          <t>https://spb.carso.ru/kia/sorento-new</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>2599900</v>
+        <v>1799900</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -12742,15 +13096,15 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1030000</v>
+        <v>879900</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/kia/soul</t>
+          <t>https://astella-drive.ru/new/kia/soul</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>1249900</v>
+        <v>949900</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -12781,6 +13135,14 @@
           <t>https://avalon-newspb.ru/new/kia/soul</t>
         </is>
       </c>
+      <c r="R283" t="n">
+        <v>879900</v>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/kia/soul</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12799,7 +13161,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1339900</v>
+        <v>1189900</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -12807,7 +13169,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>1339900</v>
+        <v>1189900</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -12840,7 +13202,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>1929900</v>
+        <v>1329900</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -12906,15 +13268,15 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1860000</v>
+        <v>1579900</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/kia/sportage-new</t>
+          <t>https://spb.carso.ru/kia/sportage-new</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>2129900</v>
+        <v>1579900</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -13037,7 +13399,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>1814900</v>
+        <v>1314900</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -13156,7 +13518,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/lada/aura</t>
+          <t>https://astella-drive.ru/new/lada/aura</t>
         </is>
       </c>
       <c r="H293" t="n">
@@ -13183,6 +13545,14 @@
           <t>https://avalon-newspb.ru/new/lada/aura</t>
         </is>
       </c>
+      <c r="R293" t="n">
+        <v>1599000</v>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/aura</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -13240,6 +13610,14 @@
           <t>https://ac-neva.ru/newauto/lada/granta-cross/</t>
         </is>
       </c>
+      <c r="R294" t="n">
+        <v>505900</v>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/granta-cross</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -13291,11 +13669,11 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>457100</v>
+        <v>288300</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/lada/granta-khetchbek/</t>
+          <t>https://astella-drive.ru/new/lada/granta-hatchback</t>
         </is>
       </c>
       <c r="H296" t="n">
@@ -13314,6 +13692,14 @@
           <t>https://ac-neva.ru/newauto/lada/granta-khetchbek/</t>
         </is>
       </c>
+      <c r="R296" t="n">
+        <v>288300</v>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/granta-hatchback</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -13365,11 +13751,11 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>423400</v>
+        <v>307900</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/lada/granta-liftbek/</t>
+          <t>https://astella-drive.ru/new/lada/granta-liftbek</t>
         </is>
       </c>
       <c r="H298" t="n">
@@ -13396,6 +13782,14 @@
           <t>https://ac-neva.ru/newauto/lada/granta-liftbek/</t>
         </is>
       </c>
+      <c r="R298" t="n">
+        <v>307900</v>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/granta-liftbek</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -13537,11 +13931,11 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>410000</v>
+        <v>285000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/lada/granta-sedan-new</t>
+          <t>https://astella-drive.ru/new/lada/granta-sedan-new</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -13560,6 +13954,14 @@
           <t>https://avalon-newspb.ru/new/lada/granta-sedan-new</t>
         </is>
       </c>
+      <c r="R302" t="n">
+        <v>285000</v>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/granta-sedan-new</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -13751,11 +14153,11 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>421600</v>
+        <v>363500</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/lada/granta-universal/</t>
+          <t>https://astella-drive.ru/new/lada/granta-universal</t>
         </is>
       </c>
       <c r="H308" t="n">
@@ -13782,6 +14184,14 @@
           <t>https://ac-neva.ru/newauto/lada/granta-universal/</t>
         </is>
       </c>
+      <c r="R308" t="n">
+        <v>363500</v>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/granta-universal</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -14166,7 +14576,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/lada/largus-new-7-mest</t>
+          <t>https://astella-drive.ru/new/lada/largus-new-7-mest</t>
         </is>
       </c>
       <c r="N319" t="n">
@@ -14185,6 +14595,14 @@
           <t>https://ac-neva.ru/newauto/lada/largus-7-ti-mestnyy/</t>
         </is>
       </c>
+      <c r="R319" t="n">
+        <v>710000</v>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/largus-new-7-mest</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -14472,6 +14890,14 @@
           <t>https://ac-neva.ru/newauto/lada/niva-travel/</t>
         </is>
       </c>
+      <c r="R326" t="n">
+        <v>565000</v>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/niva-travel</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -14654,11 +15080,11 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>718300</v>
+        <v>559000</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://ac-neva.ru/newauto/lada/vesta-sw/</t>
+          <t>https://astella-drive.ru/new/lada/vesta-sw</t>
         </is>
       </c>
       <c r="L331" t="n">
@@ -14677,6 +15103,14 @@
           <t>https://ac-neva.ru/newauto/lada/vesta-sw/</t>
         </is>
       </c>
+      <c r="R331" t="n">
+        <v>559000</v>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/vesta-sw</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -14718,6 +15152,14 @@
           <t>https://ac-neva.ru/newauto/lada/vesta-sw-cross/</t>
         </is>
       </c>
+      <c r="R332" t="n">
+        <v>920000</v>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/vesta-sw-cross</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14736,11 +15178,11 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>907140</v>
+        <v>666000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/lada/vesta-sw-cross-new</t>
+          <t>https://astella-drive.ru/new/lada/vesta-sw-cross-new</t>
         </is>
       </c>
       <c r="H333" t="n">
@@ -14767,6 +15209,14 @@
           <t>https://avalon-newspb.ru/new/lada/vesta-sw-cross-new</t>
         </is>
       </c>
+      <c r="R333" t="n">
+        <v>666000</v>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/vesta-sw-cross-new</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14785,11 +15235,11 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>950000</v>
+        <v>916000</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/lada/vesta-sw-new</t>
+          <t>https://astella-drive.ru/new/lada/vesta-sw-new</t>
         </is>
       </c>
       <c r="H334" t="n">
@@ -14816,6 +15266,14 @@
           <t>https://avalon-newspb.ru/new/lada/vesta-sw-new</t>
         </is>
       </c>
+      <c r="R334" t="n">
+        <v>916000</v>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/vesta-sw-new</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14957,11 +15415,11 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>840000</v>
+        <v>566000</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/lada/vesta-new</t>
+          <t>https://astella-drive.ru/new/lada/vesta-new</t>
         </is>
       </c>
       <c r="H338" t="n">
@@ -14988,6 +15446,14 @@
           <t>https://avalon-newspb.ru/new/lada/vesta-new</t>
         </is>
       </c>
+      <c r="R338" t="n">
+        <v>566000</v>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/lada/vesta-new</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -16277,6 +16743,14 @@
           <t>https://avalon-newspb.ru/new/mazda/cx-5</t>
         </is>
       </c>
+      <c r="R371" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="S371" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/mazda/cx-5</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -16762,6 +17236,14 @@
           <t>https://ac-neva.ru/newauto/moskvich/moskvich_3/</t>
         </is>
       </c>
+      <c r="R384" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="S384" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/moskvich/3</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -17165,11 +17647,11 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>890000</v>
+        <v>616000</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/nissan/terrano</t>
+          <t>https://astella-drive.ru/new/nissan/terrano</t>
         </is>
       </c>
       <c r="F394" t="n">
@@ -17204,6 +17686,14 @@
           <t>https://ac-neva.ru/newauto/nissan/terrano/</t>
         </is>
       </c>
+      <c r="R394" t="n">
+        <v>616000</v>
+      </c>
+      <c r="S394" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/nissan/terrano</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -17255,11 +17745,11 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>1501000</v>
+        <v>1486000</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>https://altimus-auto.ru/auto/nissan/x-trail</t>
+          <t>https://astella-drive.ru/new/nissan/x-trail</t>
         </is>
       </c>
       <c r="F396" t="n">
@@ -17294,6 +17784,14 @@
           <t>https://ac-neva.ru/newauto/nissan/x-trail/</t>
         </is>
       </c>
+      <c r="R396" t="n">
+        <v>1486000</v>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/nissan/x-trail</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -17392,6 +17890,14 @@
           <t>https://ac-neva.ru/newauto/omoda/c5/</t>
         </is>
       </c>
+      <c r="R398" t="n">
+        <v>1319900</v>
+      </c>
+      <c r="S398" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/omoda/c5</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -17498,6 +18004,14 @@
           <t>https://ac-neva.ru/newauto/omoda/s5-new/</t>
         </is>
       </c>
+      <c r="R400" t="n">
+        <v>1456900</v>
+      </c>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/omoda/s5</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -18510,11 +19024,11 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>714000</v>
+        <v>656000</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/renault/kaptur</t>
+          <t>https://astella-drive.ru/new/renault/kaptur</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -18565,6 +19079,14 @@
           <t>https://ac-neva.ru/newauto/renault/kaptur/</t>
         </is>
       </c>
+      <c r="R427" t="n">
+        <v>656000</v>
+      </c>
+      <c r="S427" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/renault/kaptur</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -18712,6 +19234,14 @@
           <t>https://ac-neva.ru/newauto/renault/logan/</t>
         </is>
       </c>
+      <c r="R430" t="n">
+        <v>566000</v>
+      </c>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/renault/logan</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -18883,6 +19413,14 @@
           <t>https://ac-neva.ru/newauto/renault/sandero/</t>
         </is>
       </c>
+      <c r="R433" t="n">
+        <v>577000</v>
+      </c>
+      <c r="S433" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/renault/sandero</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -18956,6 +19494,14 @@
           <t>https://ac-neva.ru/newauto/renault/sandero-stepway/</t>
         </is>
       </c>
+      <c r="R434" t="n">
+        <v>829000</v>
+      </c>
+      <c r="S434" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/renault/sandero-stepway</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -19547,6 +20093,14 @@
           <t>https://avalon-newspb.ru/new/skoda/rapid-2019</t>
         </is>
       </c>
+      <c r="R449" t="n">
+        <v>676000</v>
+      </c>
+      <c r="S449" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/skoda/rapid</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -19621,6 +20175,14 @@
           <t>https://spb.carso.ru/skoda/superb</t>
         </is>
       </c>
+      <c r="R451" t="n">
+        <v>1240000</v>
+      </c>
+      <c r="S451" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/skoda/superb</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -20253,6 +20815,14 @@
           <t>https://ac-neva.ru/newauto/tank/300/</t>
         </is>
       </c>
+      <c r="R467" t="n">
+        <v>2720000</v>
+      </c>
+      <c r="S467" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/tank/300</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -20809,7 +21379,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>https://avalon-newspb.ru/new/toyota/hilux-new</t>
+          <t>https://astella-drive.ru/new/toyota/hilux-new</t>
         </is>
       </c>
       <c r="N482" t="n">
@@ -20820,6 +21390,14 @@
           <t>https://avalon-newspb.ru/new/toyota/hilux-new</t>
         </is>
       </c>
+      <c r="R482" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="S482" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/toyota/hilux-new</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -21666,6 +22244,14 @@
           <t>https://avalon-newspb.ru/new/volkswagen/polo-sedan</t>
         </is>
       </c>
+      <c r="R504" t="n">
+        <v>727900</v>
+      </c>
+      <c r="S504" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/volkswagen/polo</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -21799,11 +22385,11 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>1649000</v>
+        <v>1530000</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>https://spb.carso.ru/volkswagen/tiguan-old</t>
+          <t>https://astella-drive.ru/new/volkswagen/tiguan</t>
         </is>
       </c>
       <c r="F508" t="n">
@@ -21820,6 +22406,14 @@
       <c r="M508" t="inlineStr">
         <is>
           <t>https://altimus-auto.ru/auto/volkswagen/tiguan</t>
+        </is>
+      </c>
+      <c r="R508" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="S508" t="inlineStr">
+        <is>
+          <t>https://astella-drive.ru/new/volkswagen/tiguan</t>
         </is>
       </c>
     </row>
